--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Rspo3-Lgr5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Rspo3-Lgr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -91,7 +94,7 @@
     <t>MuSCs</t>
   </si>
   <si>
-    <t>Neutrophils</t>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>2.822099333333334</v>
+        <v>0.01818866666666667</v>
       </c>
       <c r="H2">
-        <v>8.466298</v>
+        <v>0.054566</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.006403810693375696</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.006403810693375696</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.6233136666666667</v>
+        <v>0.184159</v>
       </c>
       <c r="N2">
-        <v>1.869941</v>
+        <v>0.5524770000000001</v>
       </c>
       <c r="O2">
-        <v>0.1671957790227948</v>
+        <v>0.1331158254681294</v>
       </c>
       <c r="P2">
-        <v>0.1671957790227948</v>
+        <v>0.1331158254681294</v>
       </c>
       <c r="Q2">
-        <v>1.759053083157556</v>
+        <v>0.003349606664666668</v>
       </c>
       <c r="R2">
-        <v>15.831477748418</v>
+        <v>0.03014645998200001</v>
       </c>
       <c r="S2">
-        <v>0.1671957790227948</v>
+        <v>0.0008524485465903401</v>
       </c>
       <c r="T2">
-        <v>0.1671957790227948</v>
+        <v>0.0008524485465903401</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
       <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G3">
+        <v>0.01818866666666667</v>
+      </c>
+      <c r="H3">
+        <v>0.054566</v>
+      </c>
+      <c r="I3">
+        <v>0.006403810693375696</v>
+      </c>
+      <c r="J3">
+        <v>0.006403810693375696</v>
+      </c>
+      <c r="K3">
         <v>3</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>2.822099333333334</v>
-      </c>
-      <c r="H3">
-        <v>8.466298</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.190009</v>
+        <v>0.6233136666666667</v>
       </c>
       <c r="N3">
-        <v>0.570027</v>
+        <v>1.869941</v>
       </c>
       <c r="O3">
-        <v>0.05096744139468926</v>
+        <v>0.4505504116763221</v>
       </c>
       <c r="P3">
-        <v>0.05096744139468926</v>
+        <v>0.450550411676322</v>
       </c>
       <c r="Q3">
-        <v>0.5362242722273334</v>
+        <v>0.01133724451177778</v>
       </c>
       <c r="R3">
-        <v>4.826018450046</v>
+        <v>0.102035200606</v>
       </c>
       <c r="S3">
-        <v>0.05096744139468926</v>
+        <v>0.002885239544197653</v>
       </c>
       <c r="T3">
-        <v>0.05096744139468926</v>
+        <v>0.002885239544197653</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>2.822099333333334</v>
+        <v>0.01818866666666667</v>
       </c>
       <c r="H4">
-        <v>8.466298</v>
+        <v>0.054566</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.006403810693375696</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.006403810693375696</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>2.892005</v>
+        <v>0.064319</v>
       </c>
       <c r="N4">
-        <v>8.676015</v>
+        <v>0.192957</v>
       </c>
       <c r="O4">
-        <v>0.7757427035069303</v>
+        <v>0.04649176406412185</v>
       </c>
       <c r="P4">
-        <v>0.7757427035069303</v>
+        <v>0.04649176406412184</v>
       </c>
       <c r="Q4">
-        <v>8.161525382496666</v>
+        <v>0.001169876851333334</v>
       </c>
       <c r="R4">
-        <v>73.45372844246999</v>
+        <v>0.010528891662</v>
       </c>
       <c r="S4">
-        <v>0.7757427035069303</v>
+        <v>0.0002977244558677234</v>
       </c>
       <c r="T4">
-        <v>0.7757427035069303</v>
+        <v>0.0002977244558677234</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +711,433 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.01818866666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.054566</v>
+      </c>
+      <c r="I5">
+        <v>0.006403810693375696</v>
+      </c>
+      <c r="J5">
+        <v>0.006403810693375696</v>
+      </c>
+      <c r="K5">
         <v>3</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.4910533333333333</v>
+      </c>
+      <c r="N5">
+        <v>1.47316</v>
+      </c>
+      <c r="O5">
+        <v>0.3549485488927676</v>
+      </c>
+      <c r="P5">
+        <v>0.3549485488927676</v>
+      </c>
+      <c r="Q5">
+        <v>0.008931605395555558</v>
+      </c>
+      <c r="R5">
+        <v>0.08038444856</v>
+      </c>
+      <c r="S5">
+        <v>0.002273023312997691</v>
+      </c>
+      <c r="T5">
+        <v>0.002273023312997691</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.01818866666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.054566</v>
+      </c>
+      <c r="I6">
+        <v>0.006403810693375696</v>
+      </c>
+      <c r="J6">
+        <v>0.006403810693375696</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.02060433333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.061813</v>
+      </c>
+      <c r="O6">
+        <v>0.0148934498986591</v>
+      </c>
+      <c r="P6">
+        <v>0.0148934498986591</v>
+      </c>
+      <c r="Q6">
+        <v>0.0003747653508888889</v>
+      </c>
+      <c r="R6">
+        <v>0.003372888158</v>
+      </c>
+      <c r="S6">
+        <v>9.537483372228831E-05</v>
+      </c>
+      <c r="T6">
+        <v>9.537483372228831E-05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
         <v>2.822099333333334</v>
       </c>
-      <c r="H5">
+      <c r="H7">
         <v>8.466298</v>
       </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
+      <c r="I7">
+        <v>0.9935961893066243</v>
+      </c>
+      <c r="J7">
+        <v>0.9935961893066244</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.184159</v>
+      </c>
+      <c r="N7">
+        <v>0.5524770000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.1331158254681294</v>
+      </c>
+      <c r="P7">
+        <v>0.1331158254681294</v>
+      </c>
+      <c r="Q7">
+        <v>0.5197149911273335</v>
+      </c>
+      <c r="R7">
+        <v>4.677434920146001</v>
+      </c>
+      <c r="S7">
+        <v>0.1322633769215391</v>
+      </c>
+      <c r="T7">
+        <v>0.1322633769215391</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.822099333333334</v>
+      </c>
+      <c r="H8">
+        <v>8.466298</v>
+      </c>
+      <c r="I8">
+        <v>0.9935961893066243</v>
+      </c>
+      <c r="J8">
+        <v>0.9935961893066244</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.6233136666666667</v>
+      </c>
+      <c r="N8">
+        <v>1.869941</v>
+      </c>
+      <c r="O8">
+        <v>0.4505504116763221</v>
+      </c>
+      <c r="P8">
+        <v>0.450550411676322</v>
+      </c>
+      <c r="Q8">
+        <v>1.759053083157556</v>
+      </c>
+      <c r="R8">
+        <v>15.831477748418</v>
+      </c>
+      <c r="S8">
+        <v>0.4476651721321244</v>
+      </c>
+      <c r="T8">
+        <v>0.4476651721321244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.822099333333334</v>
+      </c>
+      <c r="H9">
+        <v>8.466298</v>
+      </c>
+      <c r="I9">
+        <v>0.9935961893066243</v>
+      </c>
+      <c r="J9">
+        <v>0.9935961893066244</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M5">
-        <v>0.022719</v>
-      </c>
-      <c r="N5">
-        <v>0.06815700000000001</v>
-      </c>
-      <c r="O5">
-        <v>0.006094076075585608</v>
-      </c>
-      <c r="P5">
-        <v>0.006094076075585608</v>
-      </c>
-      <c r="Q5">
-        <v>0.06411527475400002</v>
-      </c>
-      <c r="R5">
-        <v>0.577037472786</v>
-      </c>
-      <c r="S5">
-        <v>0.006094076075585608</v>
-      </c>
-      <c r="T5">
-        <v>0.006094076075585608</v>
+      <c r="M9">
+        <v>0.064319</v>
+      </c>
+      <c r="N9">
+        <v>0.192957</v>
+      </c>
+      <c r="O9">
+        <v>0.04649176406412185</v>
+      </c>
+      <c r="P9">
+        <v>0.04649176406412184</v>
+      </c>
+      <c r="Q9">
+        <v>0.1815146070206667</v>
+      </c>
+      <c r="R9">
+        <v>1.633631463186</v>
+      </c>
+      <c r="S9">
+        <v>0.04619403960825413</v>
+      </c>
+      <c r="T9">
+        <v>0.04619403960825413</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.822099333333334</v>
+      </c>
+      <c r="H10">
+        <v>8.466298</v>
+      </c>
+      <c r="I10">
+        <v>0.9935961893066243</v>
+      </c>
+      <c r="J10">
+        <v>0.9935961893066244</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.4910533333333333</v>
+      </c>
+      <c r="N10">
+        <v>1.47316</v>
+      </c>
+      <c r="O10">
+        <v>0.3549485488927676</v>
+      </c>
+      <c r="P10">
+        <v>0.3549485488927676</v>
+      </c>
+      <c r="Q10">
+        <v>1.385801284631111</v>
+      </c>
+      <c r="R10">
+        <v>12.47221156168</v>
+      </c>
+      <c r="S10">
+        <v>0.3526755255797699</v>
+      </c>
+      <c r="T10">
+        <v>0.3526755255797699</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.822099333333334</v>
+      </c>
+      <c r="H11">
+        <v>8.466298</v>
+      </c>
+      <c r="I11">
+        <v>0.9935961893066243</v>
+      </c>
+      <c r="J11">
+        <v>0.9935961893066244</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.02060433333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.061813</v>
+      </c>
+      <c r="O11">
+        <v>0.0148934498986591</v>
+      </c>
+      <c r="P11">
+        <v>0.0148934498986591</v>
+      </c>
+      <c r="Q11">
+        <v>0.05814747536377778</v>
+      </c>
+      <c r="R11">
+        <v>0.5233272782740001</v>
+      </c>
+      <c r="S11">
+        <v>0.01479807506493681</v>
+      </c>
+      <c r="T11">
+        <v>0.01479807506493681</v>
       </c>
     </row>
   </sheetData>
